--- a/resources/reports/ExcelReport.xlsx
+++ b/resources/reports/ExcelReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="79">
   <si>
     <t>OPEN BOWSER</t>
   </si>
@@ -29,22 +29,25 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>3:29:08 PM</t>
+    <t>4:17:08 PM</t>
   </si>
   <si>
     <t>Lanuch browser--chrome</t>
   </si>
   <si>
-    <t>3:29:12 PM</t>
+    <t>4:17:11 PM</t>
   </si>
   <si>
     <t>Enter URL--https://www.amazon.in/</t>
   </si>
   <si>
+    <t>4:17:12 PM</t>
+  </si>
+  <si>
     <t>Mousehover on Accounts and lists : Mouse hovered on element</t>
   </si>
   <si>
-    <t>3:29:14 PM</t>
+    <t>4:17:13 PM</t>
   </si>
   <si>
     <t>Click in sign in : Element clicked</t>
@@ -53,79 +56,185 @@
     <t>Enter mobile number or Email address:9949584131</t>
   </si>
   <si>
-    <t>3:29:15 PM</t>
+    <t>4:17:15 PM</t>
   </si>
   <si>
     <t>click on continue button : Element clicked</t>
   </si>
   <si>
-    <t>3:29:16 PM</t>
-  </si>
-  <si>
     <t>Enter passowrd:Sairam@123</t>
   </si>
   <si>
     <t>Click on sign in button : Element clicked</t>
   </si>
   <si>
-    <t>3:29:19 PM</t>
+    <t>4:17:18 PM</t>
   </si>
   <si>
     <t>Wait--3sec</t>
   </si>
   <si>
-    <t>3:29:20 PM</t>
+    <t>4:17:19 PM</t>
   </si>
   <si>
     <t>Close browser</t>
   </si>
   <si>
-    <t>3:29:21 PM</t>
-  </si>
-  <si>
-    <t>3:29:25 PM</t>
-  </si>
-  <si>
-    <t>3:29:26 PM</t>
-  </si>
-  <si>
-    <t>3:29:27 PM</t>
-  </si>
-  <si>
-    <t>3:29:28 PM</t>
+    <t>4:17:23 PM</t>
+  </si>
+  <si>
+    <t>Lanuch browser--edge</t>
+  </si>
+  <si>
+    <t>4:17:30 PM</t>
+  </si>
+  <si>
+    <t>4:17:32 PM</t>
+  </si>
+  <si>
+    <t>4:17:33 PM</t>
+  </si>
+  <si>
+    <t>4:17:34 PM</t>
   </si>
   <si>
     <t>Enter passowrd:871guhn</t>
   </si>
   <si>
-    <t>3:29:32 PM</t>
-  </si>
-  <si>
-    <t>3:29:33 PM</t>
-  </si>
-  <si>
-    <t>3:29:37 PM</t>
-  </si>
-  <si>
-    <t>3:29:38 PM</t>
-  </si>
-  <si>
-    <t>3:29:39 PM</t>
-  </si>
-  <si>
-    <t>3:29:40 PM</t>
-  </si>
-  <si>
-    <t>3:29:41 PM</t>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>4:17:35 PM</t>
+  </si>
+  <si>
+    <t>Verify Logo is Failed</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="nav-logo-sprites"]"}
+  (Session info: MicrosoftEdge=117.0.2045.36)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.11.0', revision: '040bc5406b'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
+Driver info: org.openqa.selenium.edge.EdgeDriver
+Command: [241cc38b0af48580e72bc783caffb0f1, findElement {using=xpath, value=//*[@id="nav-logo-sprites"]}]
+Capabilities {acceptInsecureCerts: false, browserName: msedge, browserVersion: 117.0.2045.36, fedcm:accounts: true, ms:edgeOptions: {debuggerAddress: localhost:63313}, msedge: {msedgedriverVersion: 117.0.2045.36 (7e3a0633c58a..., userDataDir: C:\Users\ROOPAV~1\AppData\L...}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:63313/devtoo..., se:cdpVersion: 117.0.2045.36, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 241cc38b0af48580e72bc783caffb0f1</t>
+  </si>
+  <si>
+    <t>4:17:36 PM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Verify Logo - Test case failed base64 img</t>
+  </si>
+  <si>
+    <t>4:17:39 PM</t>
+  </si>
+  <si>
+    <t>4:17:43 PM</t>
+  </si>
+  <si>
+    <t>Lanuch browser--firefox</t>
+  </si>
+  <si>
+    <t>4:17:45 PM</t>
+  </si>
+  <si>
+    <t>4:17:46 PM</t>
+  </si>
+  <si>
+    <t>Click in sign in is Failed</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.ElementNotInteractableException: Element &lt;span class="nav-action-inner"&gt; could not be scrolled into view
+Build info: version: '4.11.0', revision: '040bc5406b'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Command: [30114b90-4dfa-4d09-8523-df2d08f61393, clickElement {id=6e4b78e7-43ce-4b13-8acd-85f3b4c6a308}]
+Capabilities {acceptInsecureCerts: true, browserName: firefox, browserVersion: 117.0.1, moz:accessibilityChecks: false, moz:buildID: 20230912013654, moz:debuggerAddress: 127.0.0.1:19844, moz:geckodriverVersion: 0.33.0, moz:headless: false, moz:platformVersion: 10.0, moz:processID: 2104, moz:profile: C:\Users\ROOPAV~1\AppData\L..., moz:shutdownTimeout: 60000, moz:webdriverClick: true, moz:windowless: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://127.0.0.1:19844/devtoo..., se:cdpVersion: 85.0, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify}
+Element: [[FirefoxDriver: firefox on windows (30114b90-4dfa-4d09-8523-df2d08f61393)] -&gt; xpath: //*[@id="nav-flyout-ya-signin"]/a/span]
+Session ID: 30114b90-4dfa-4d09-8523-df2d08f61393</t>
+  </si>
+  <si>
+    <t>Click in sign in - Test case failed base64 img</t>
+  </si>
+  <si>
+    <t>4:17:47 PM</t>
+  </si>
+  <si>
+    <t>Enter mobile number or Email address is Failed</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: Unable to locate element: //*[@id="ap_email"]
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.11.0', revision: '040bc5406b'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Command: [30114b90-4dfa-4d09-8523-df2d08f61393, findElement {using=xpath, value=//*[@id="ap_email"]}]
+Capabilities {acceptInsecureCerts: true, browserName: firefox, browserVersion: 117.0.1, moz:accessibilityChecks: false, moz:buildID: 20230912013654, moz:debuggerAddress: 127.0.0.1:19844, moz:geckodriverVersion: 0.33.0, moz:headless: false, moz:platformVersion: 10.0, moz:processID: 2104, moz:profile: C:\Users\ROOPAV~1\AppData\L..., moz:shutdownTimeout: 60000, moz:webdriverClick: true, moz:windowless: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://127.0.0.1:19844/devtoo..., se:cdpVersion: 85.0, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify}
+Session ID: 30114b90-4dfa-4d09-8523-df2d08f61393</t>
+  </si>
+  <si>
+    <t>Enter mobile number or Email address - Test case failed base64 img</t>
+  </si>
+  <si>
+    <t>click on continue button is Failed</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: Unable to locate element: //*[@id="continue"]
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.11.0', revision: '040bc5406b'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Command: [30114b90-4dfa-4d09-8523-df2d08f61393, findElement {using=xpath, value=//*[@id="continue"]}]
+Capabilities {acceptInsecureCerts: true, browserName: firefox, browserVersion: 117.0.1, moz:accessibilityChecks: false, moz:buildID: 20230912013654, moz:debuggerAddress: 127.0.0.1:19844, moz:geckodriverVersion: 0.33.0, moz:headless: false, moz:platformVersion: 10.0, moz:processID: 2104, moz:profile: C:\Users\ROOPAV~1\AppData\L..., moz:shutdownTimeout: 60000, moz:webdriverClick: true, moz:windowless: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://127.0.0.1:19844/devtoo..., se:cdpVersion: 85.0, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify}
+Session ID: 30114b90-4dfa-4d09-8523-df2d08f61393</t>
+  </si>
+  <si>
+    <t>click on continue button - Test case failed base64 img</t>
+  </si>
+  <si>
+    <t>4:17:48 PM</t>
+  </si>
+  <si>
+    <t>Enter passowrd is Failed</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: Unable to locate element: //*[@id="ap_password"]
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.11.0', revision: '040bc5406b'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Command: [30114b90-4dfa-4d09-8523-df2d08f61393, findElement {using=xpath, value=//*[@id="ap_password"]}]
+Capabilities {acceptInsecureCerts: true, browserName: firefox, browserVersion: 117.0.1, moz:accessibilityChecks: false, moz:buildID: 20230912013654, moz:debuggerAddress: 127.0.0.1:19844, moz:geckodriverVersion: 0.33.0, moz:headless: false, moz:platformVersion: 10.0, moz:processID: 2104, moz:profile: C:\Users\ROOPAV~1\AppData\L..., moz:shutdownTimeout: 60000, moz:webdriverClick: true, moz:windowless: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://127.0.0.1:19844/devtoo..., se:cdpVersion: 85.0, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify}
+Session ID: 30114b90-4dfa-4d09-8523-df2d08f61393</t>
+  </si>
+  <si>
+    <t>Enter passowrd - Test case failed base64 img</t>
+  </si>
+  <si>
+    <t>Click on sign in button is Failed</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: Unable to locate element: //*[@id="signInSubmit"]
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.11.0', revision: '040bc5406b'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Command: [30114b90-4dfa-4d09-8523-df2d08f61393, findElement {using=xpath, value=//*[@id="signInSubmit"]}]
+Capabilities {acceptInsecureCerts: true, browserName: firefox, browserVersion: 117.0.1, moz:accessibilityChecks: false, moz:buildID: 20230912013654, moz:debuggerAddress: 127.0.0.1:19844, moz:geckodriverVersion: 0.33.0, moz:headless: false, moz:platformVersion: 10.0, moz:processID: 2104, moz:profile: C:\Users\ROOPAV~1\AppData\L..., moz:shutdownTimeout: 60000, moz:webdriverClick: true, moz:windowless: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://127.0.0.1:19844/devtoo..., se:cdpVersion: 85.0, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify}
+Session ID: 30114b90-4dfa-4d09-8523-df2d08f61393</t>
+  </si>
+  <si>
+    <t>Click on sign in button - Test case failed base64 img</t>
   </si>
   <si>
     <t>Info</t>
   </si>
   <si>
-    <t>3:29:45 PM</t>
-  </si>
-  <si>
-    <t/>
+    <t>4:17:49 PM</t>
   </si>
   <si>
     <t>Logo screenshot :Element Screenshot captured</t>
@@ -134,19 +243,32 @@
     <t>Search item in search bar:Apple iPhone 14 (128 GB) - Blue</t>
   </si>
   <si>
-    <t>3:29:48 PM</t>
+    <t>4:17:50 PM</t>
   </si>
   <si>
     <t>Click on search button : Element clicked</t>
   </si>
   <si>
-    <t>3:29:49 PM</t>
-  </si>
-  <si>
-    <t>Click on signOut : Element clicked</t>
-  </si>
-  <si>
-    <t>3:29:50 PM</t>
+    <t>4:17:51 PM</t>
+  </si>
+  <si>
+    <t>Click on signOut is Failed</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: Unable to locate element: //*[@id="nav-item-signout"]/span
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.11.0', revision: '040bc5406b'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Command: [30114b90-4dfa-4d09-8523-df2d08f61393, findElement {using=xpath, value=//*[@id="nav-item-signout"]/span}]
+Capabilities {acceptInsecureCerts: true, browserName: firefox, browserVersion: 117.0.1, moz:accessibilityChecks: false, moz:buildID: 20230912013654, moz:debuggerAddress: 127.0.0.1:19844, moz:geckodriverVersion: 0.33.0, moz:headless: false, moz:platformVersion: 10.0, moz:processID: 2104, moz:profile: C:\Users\ROOPAV~1\AppData\L..., moz:shutdownTimeout: 60000, moz:webdriverClick: true, moz:windowless: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://127.0.0.1:19844/devtoo..., se:cdpVersion: 85.0, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify}
+Session ID: 30114b90-4dfa-4d09-8523-df2d08f61393</t>
+  </si>
+  <si>
+    <t>Click on signOut - Test case failed base64 img</t>
+  </si>
+  <si>
+    <t>4:17:53 PM</t>
   </si>
   <si>
     <t>username</t>
@@ -234,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -279,10 +401,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -290,10 +412,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -301,10 +423,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -312,10 +434,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -323,7 +445,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>16</v>
@@ -334,7 +456,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>17</v>
@@ -371,7 +493,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
@@ -379,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>8</v>
@@ -390,10 +512,10 @@
         <v>4</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -401,10 +523,10 @@
         <v>4</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -415,7 +537,7 @@
         <v>25</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -426,7 +548,7 @@
         <v>26</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -434,10 +556,10 @@
         <v>4</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -445,7 +567,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>17</v>
@@ -453,36 +575,46 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26">
@@ -490,10 +622,10 @@
         <v>4</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
@@ -501,32 +633,22 @@
         <v>4</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28"/>
     <row r="29">
       <c r="A29" t="s" s="0">
         <v>4</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
@@ -534,10 +656,10 @@
         <v>4</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -545,139 +667,381 @@
         <v>4</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s" s="0">
         <v>44</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>49</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s" s="0">
         <v>50</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B44" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="B44" t="s" s="0">
+      <c r="C44" t="s" s="0">
         <v>52</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B45" t="s" s="0">
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s" s="0">
         <v>54</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62"/>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
